--- a/biology/Zoologie/Drongo_royal/Drongo_royal.xlsx
+++ b/biology/Zoologie/Drongo_royal/Drongo_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus macrocercus
 Le Drongo royal (Dicrurus macrocercus) est une espèce de passereaux de la famille des Dicruridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau entièrement noir, avec une queue fourchue caractéristique, qui mesure 28 cm de longueur pour un poids de 40 à 60 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement d'insectes, c'est pourquoi il est courant de le voir dans les champs et les bois de tout son domaine de répartition, posé sur un perchoir bien visible ou sur les lignes électriques ou téléphoniques. Il mange aussi  parfois des oisillons dans leur nid et des petites chauve-souris.
 Parfois il boit du nectar des fleurs d'arbres fromagers bombax insigna et bombax ceiba (salmalia malabarica).
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue pour son comportement agressif envers les oiseaux beaucoup plus grands que lui, tels que les corneilles, n'hésitant pas à plonger en bombe sur tout oiseau de proie qui envahit son territoire. Les petits oiseaux nichent souvent dans le voisinage bien gardé d'un nid de Drongo royal.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau réside dans une grande partie du sud de l'Asie tropicale depuis le sud-ouest de l'Iran en passant par l'Inde et l'est du Sri Lanka au sud de la Chine et l'Indonésie.
 Introduit dans certaines îles du Pacifique, il a prospéré et est devenu tellement abondant qu'il menace ou a causé l'extinction d'espèces d'oiseaux indigènes endémiques.
@@ -638,7 +658,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le drongo royal vit à l'orée des forêts, dans des endroits couverts de buissons et d'arbres isolés et aussi dans les parcs et jardins des villes.
 </t>
@@ -669,10 +691,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce passereau construit un nid à la fourche d'une branche d'un arbre feuillu (manguier, acacia nilotica, prosopis spicifera ou chêne quercus) entre 2 et 12 m au dessus du sol. Ce nid est constitué de rameaux et de filaments végétaux. La femelle pond de 2 à 3 œufs. Les deux parents couvent à tour de rôle pendant 16 jours puis nourrissent les oisillons.
-Le drongo élève aussi souvent à son insu un coucou[1].
+Le drongo élève aussi souvent à son insu un coucou.
 </t>
         </is>
       </c>
@@ -701,7 +725,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -732,7 +758,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considéré comme une sous-espèce du Drongo brillant (Dicrurus adsimilis), il est maintenant reconnu comme une espèce à part entière.
 </t>
